--- a/Resumen_General_Cómputos_Asientos.xlsx
+++ b/Resumen_General_Cómputos_Asientos.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky_l\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABFBAEA-82B1-48E0-A32B-7D5731542DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
   <si>
     <t>Casilla</t>
   </si>
@@ -243,30 +261,37 @@
   </si>
   <si>
     <t>354 C2</t>
+  </si>
+  <si>
+    <t>ClaveEntidad</t>
+  </si>
+  <si>
+    <t>ClaveMunicipio</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -302,23 +327,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -608,816 +642,889 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:P62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="P62" sqref="P62"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.2822" customWidth="true" style="0"/>
-    <col min="2" max="2" width="14.2822" customWidth="true" style="0"/>
-    <col min="3" max="3" width="14.2822" customWidth="true" style="0"/>
-    <col min="4" max="4" width="14.2822" customWidth="true" style="0"/>
-    <col min="5" max="5" width="14.2822" customWidth="true" style="0"/>
-    <col min="6" max="6" width="14.2822" customWidth="true" style="0"/>
-    <col min="7" max="7" width="14.2822" customWidth="true" style="0"/>
-    <col min="8" max="8" width="14.2822" customWidth="true" style="0"/>
-    <col min="9" max="9" width="14.2822" customWidth="true" style="0"/>
-    <col min="10" max="10" width="14.2822" customWidth="true" style="0"/>
-    <col min="11" max="11" width="14.2822" customWidth="true" style="0"/>
-    <col min="12" max="12" width="14.2822" customWidth="true" style="0"/>
-    <col min="13" max="13" width="14.2822" customWidth="true" style="0"/>
-    <col min="14" max="14" width="14.2822" customWidth="true" style="0"/>
-    <col min="15" max="15" width="14.2822" customWidth="true" style="0"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>115</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>86</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>19</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>161</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>3</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
         <v>20</v>
       </c>
-      <c r="N2" s="3">
+      <c r="P2" s="3">
         <v>220</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>59</v>
       </c>
-      <c r="P2" s="1">
+      <c r="R2" s="1">
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D3" s="1">
         <v>145</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>73</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>13</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>139</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
       <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>16</v>
       </c>
-      <c r="N3" s="3">
+      <c r="P3" s="3">
         <v>235</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>96</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D4" s="1">
         <v>103</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>69</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>9</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>165</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>4</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>14</v>
       </c>
-      <c r="N4" s="3">
+      <c r="P4" s="3">
         <v>195</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>30</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1">
+      <c r="D5" s="1">
         <v>117</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>64</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>15</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>12</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>132</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>19</v>
       </c>
-      <c r="N5" s="3">
+      <c r="P5" s="3">
         <v>204</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>72</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D6" s="1">
         <v>95</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>51</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>130</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>9</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
       <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>7</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P6" s="3">
         <v>165</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>35</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D7" s="1">
         <v>115</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>53</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>13</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>150</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
       <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>25</v>
       </c>
-      <c r="N7" s="3">
+      <c r="P7" s="3">
         <v>189</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>39</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
+      <c r="D8" s="1">
         <v>214</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>8</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>18</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>122</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
       </c>
       <c r="J8" s="1">
         <v>6</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>14</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>260</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>138</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
+      <c r="D9" s="1">
         <v>205</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>18</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>22</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>9</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>85</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>6</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
       <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>17</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>258</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>173</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="D10" s="1">
         <v>195</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>14</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>25</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>18</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="2">
         <v>71</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>16</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
       <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
         <v>19</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>257</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>186</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1">
+      <c r="D11" s="1">
         <v>223</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>84</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>19</v>
       </c>
-      <c r="G11" s="2">
+      <c r="I11" s="2">
         <v>69</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>6</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>3</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
       <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
         <v>12</v>
       </c>
-      <c r="N11" s="3">
+      <c r="P11" s="3">
         <v>329</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>260</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1">
+      <c r="D12" s="1">
         <v>185</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <v>93</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>9</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>21</v>
       </c>
-      <c r="G12" s="2">
+      <c r="I12" s="2">
         <v>77</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>6</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>5</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
       <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>19</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <v>223</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <v>426</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1">
+      <c r="D13" s="1">
         <v>223</v>
       </c>
-      <c r="C13" s="1">
+      <c r="E13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <v>52</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>7</v>
       </c>
-      <c r="G13" s="2">
+      <c r="I13" s="2">
         <v>72</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>5</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
         <v>13</v>
       </c>
-      <c r="N13" s="3">
+      <c r="P13" s="3">
         <v>296</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>224</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>393</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1">
+      <c r="D14" s="1">
         <v>236</v>
       </c>
-      <c r="C14" s="1">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
         <v>81</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>11</v>
       </c>
-      <c r="G14" s="2">
+      <c r="I14" s="2">
         <v>62</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>4</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
       <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>329</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>267</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>421</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1">
+      <c r="D15" s="1">
         <v>170</v>
       </c>
-      <c r="C15" s="1">
+      <c r="E15" s="1">
         <v>23</v>
       </c>
-      <c r="D15" s="1">
+      <c r="F15" s="1">
         <v>19</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>4</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="2">
         <v>188</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>3</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>216</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>28</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <v>428</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1">
+      <c r="D16" s="1">
         <v>191</v>
       </c>
-      <c r="C16" s="1">
+      <c r="E16" s="1">
         <v>32</v>
       </c>
-      <c r="D16" s="1">
+      <c r="F16" s="1">
         <v>18</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <v>4</v>
       </c>
-      <c r="G16" s="2">
+      <c r="I16" s="2">
         <v>165</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <v>6</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
@@ -1425,1199 +1532,1343 @@
         <v>0</v>
       </c>
       <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
         <v>17</v>
       </c>
-      <c r="N16" s="3">
+      <c r="P16" s="3">
         <v>247</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
         <v>82</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R16" s="1">
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1">
+      <c r="D17" s="1">
         <v>194</v>
       </c>
-      <c r="C17" s="1">
+      <c r="E17" s="1">
         <v>18</v>
       </c>
-      <c r="D17" s="1">
+      <c r="F17" s="1">
         <v>13</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <v>9</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="2">
         <v>192</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <v>4</v>
       </c>
-      <c r="I17" s="1">
+      <c r="K17" s="1">
         <v>4</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
       <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
         <v>16</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>235</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <v>43</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17" s="1">
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1">
+      <c r="D18" s="1">
         <v>169</v>
       </c>
-      <c r="C18" s="1">
+      <c r="E18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="F18" s="1">
         <v>74</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="F18" s="1">
+      <c r="H18" s="1">
         <v>15</v>
       </c>
-      <c r="G18" s="2">
+      <c r="I18" s="2">
         <v>167</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
         <v>21</v>
       </c>
-      <c r="I18" s="1">
+      <c r="K18" s="1">
         <v>5</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1">
         <v>2</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="1">
         <v>2</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
         <v>16</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>287</v>
       </c>
-      <c r="O18" s="1">
+      <c r="Q18" s="1">
         <v>120</v>
       </c>
-      <c r="P18" s="1">
+      <c r="R18" s="1">
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1">
+      <c r="D19" s="1">
         <v>190</v>
       </c>
-      <c r="C19" s="1">
+      <c r="E19" s="1">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
+      <c r="F19" s="1">
         <v>23</v>
       </c>
-      <c r="E19" s="1">
+      <c r="G19" s="1">
         <v>8</v>
       </c>
-      <c r="F19" s="1">
+      <c r="H19" s="1">
         <v>12</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <v>197</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J19" s="1">
         <v>14</v>
       </c>
-      <c r="I19" s="1">
+      <c r="K19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
       <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
         <v>16</v>
       </c>
-      <c r="N19" s="3">
+      <c r="P19" s="3">
         <v>243</v>
       </c>
-      <c r="O19" s="1">
+      <c r="Q19" s="1">
         <v>46</v>
       </c>
-      <c r="P19" s="1">
+      <c r="R19" s="1">
         <v>476</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1">
+      <c r="D20" s="1">
         <v>205</v>
       </c>
-      <c r="C20" s="1">
+      <c r="E20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="1">
+      <c r="F20" s="1">
         <v>34</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="1">
+      <c r="H20" s="1">
         <v>14</v>
       </c>
-      <c r="G20" s="2">
+      <c r="I20" s="2">
         <v>187</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>15</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
       <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
         <v>11</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>274</v>
       </c>
-      <c r="O20" s="1">
+      <c r="Q20" s="1">
         <v>87</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1">
+      <c r="D21" s="1">
         <v>216</v>
       </c>
-      <c r="C21" s="1">
+      <c r="E21" s="1">
         <v>13</v>
       </c>
-      <c r="D21" s="1">
+      <c r="F21" s="1">
         <v>31</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <v>11</v>
       </c>
-      <c r="F21" s="1">
+      <c r="H21" s="1">
         <v>13</v>
       </c>
-      <c r="G21" s="2">
+      <c r="I21" s="2">
         <v>204</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
         <v>8</v>
       </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
         <v>3</v>
       </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
       <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
         <v>14</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>271</v>
       </c>
-      <c r="O21" s="1">
+      <c r="Q21" s="1">
         <v>67</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21" s="1">
         <v>513</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1">
+      <c r="D22" s="1">
         <v>188</v>
       </c>
-      <c r="C22" s="1">
+      <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="D22" s="1">
+      <c r="F22" s="1">
         <v>32</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <v>7</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
         <v>9</v>
       </c>
-      <c r="G22" s="2">
+      <c r="I22" s="2">
         <v>199</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
         <v>17</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K22" s="1">
         <v>3</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
       <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
         <v>12</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>251</v>
       </c>
-      <c r="O22" s="1">
+      <c r="Q22" s="1">
         <v>52</v>
       </c>
-      <c r="P22" s="1">
+      <c r="R22" s="1">
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1">
+      <c r="D23" s="1">
         <v>231</v>
       </c>
-      <c r="C23" s="1">
+      <c r="E23" s="1">
         <v>27</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>12</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>9</v>
       </c>
-      <c r="F23" s="1">
+      <c r="H23" s="1">
         <v>29</v>
       </c>
-      <c r="G23" s="2">
+      <c r="I23" s="2">
         <v>102</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
         <v>6</v>
       </c>
-      <c r="I23" s="1">
+      <c r="K23" s="1">
         <v>4</v>
       </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
       <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
         <v>15</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>280</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q23" s="1">
         <v>178</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23" s="1">
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1">
+      <c r="D24" s="1">
         <v>204</v>
       </c>
-      <c r="C24" s="1">
+      <c r="E24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="1">
+      <c r="F24" s="1">
         <v>14</v>
       </c>
-      <c r="E24" s="1">
+      <c r="G24" s="1">
         <v>18</v>
       </c>
-      <c r="F24" s="1">
+      <c r="H24" s="1">
         <v>21</v>
       </c>
-      <c r="G24" s="2">
+      <c r="I24" s="2">
         <v>111</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J24" s="1">
         <v>6</v>
       </c>
-      <c r="I24" s="1">
+      <c r="K24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>1</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
         <v>22</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>247</v>
       </c>
-      <c r="O24" s="1">
+      <c r="Q24" s="1">
         <v>136</v>
       </c>
-      <c r="P24" s="1">
+      <c r="R24" s="1">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1">
+      <c r="D25" s="1">
         <v>130</v>
       </c>
-      <c r="C25" s="1">
+      <c r="E25" s="1">
         <v>19</v>
       </c>
-      <c r="D25" s="1">
+      <c r="F25" s="1">
         <v>97</v>
       </c>
-      <c r="E25" s="1">
+      <c r="G25" s="1">
         <v>12</v>
       </c>
-      <c r="F25" s="1">
+      <c r="H25" s="1">
         <v>9</v>
       </c>
-      <c r="G25" s="2">
+      <c r="I25" s="2">
         <v>187</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J25" s="1">
         <v>10</v>
       </c>
-      <c r="I25" s="1">
+      <c r="K25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>2</v>
       </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
         <v>260</v>
       </c>
-      <c r="O25" s="1">
+      <c r="Q25" s="1">
         <v>73</v>
       </c>
-      <c r="P25" s="1">
+      <c r="R25" s="1">
         <v>468</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1">
+      <c r="D26" s="1">
         <v>133</v>
       </c>
-      <c r="C26" s="1">
+      <c r="E26" s="1">
         <v>13</v>
       </c>
-      <c r="D26" s="1">
+      <c r="F26" s="1">
         <v>115</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>10</v>
       </c>
-      <c r="F26" s="1">
+      <c r="H26" s="1">
         <v>8</v>
       </c>
-      <c r="G26" s="2">
+      <c r="I26" s="2">
         <v>158</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J26" s="1">
         <v>9</v>
       </c>
-      <c r="I26" s="1">
+      <c r="K26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="1">
+      <c r="L26" s="1">
         <v>3</v>
       </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
       <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
         <v>12</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>274</v>
       </c>
-      <c r="O26" s="1">
+      <c r="Q26" s="1">
         <v>116</v>
       </c>
-      <c r="P26" s="1">
+      <c r="R26" s="1">
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1">
+      <c r="D27" s="1">
         <v>138</v>
       </c>
-      <c r="C27" s="1">
+      <c r="E27" s="1">
         <v>12</v>
       </c>
-      <c r="D27" s="1">
+      <c r="F27" s="1">
         <v>9</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>8</v>
       </c>
-      <c r="F27" s="1">
+      <c r="H27" s="1">
         <v>21</v>
       </c>
-      <c r="G27" s="2">
+      <c r="I27" s="2">
         <v>155</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J27" s="1">
         <v>4</v>
       </c>
-      <c r="I27" s="1">
+      <c r="K27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
       <c r="L27" s="1">
         <v>0</v>
       </c>
       <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
         <v>12</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>165</v>
       </c>
-      <c r="O27" s="1">
+      <c r="Q27" s="1">
         <v>10</v>
       </c>
-      <c r="P27" s="1">
+      <c r="R27" s="1">
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1">
+      <c r="D28" s="1">
         <v>122</v>
       </c>
-      <c r="C28" s="1">
+      <c r="E28" s="1">
         <v>18</v>
-      </c>
-      <c r="D28" s="1">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1">
-        <v>13</v>
       </c>
       <c r="F28" s="1">
         <v>13</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2">
         <v>108</v>
       </c>
-      <c r="H28" s="1">
+      <c r="J28" s="1">
         <v>5</v>
       </c>
-      <c r="I28" s="1">
+      <c r="K28" s="1">
         <v>3</v>
       </c>
-      <c r="J28" s="1">
+      <c r="L28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1">
+      <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
         <v>16</v>
       </c>
-      <c r="N28" s="3">
+      <c r="P28" s="3">
         <v>163</v>
       </c>
-      <c r="O28" s="1">
+      <c r="Q28" s="1">
         <v>55</v>
       </c>
-      <c r="P28" s="1">
+      <c r="R28" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="1">
+      <c r="D29" s="1">
         <v>145</v>
       </c>
-      <c r="C29" s="1">
+      <c r="E29" s="1">
         <v>19</v>
       </c>
-      <c r="D29" s="1">
+      <c r="F29" s="1">
         <v>8</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
         <v>6</v>
       </c>
-      <c r="F29" s="1">
+      <c r="H29" s="1">
         <v>20</v>
       </c>
-      <c r="G29" s="2">
+      <c r="I29" s="2">
         <v>142</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J29" s="1">
         <v>14</v>
       </c>
-      <c r="I29" s="1">
+      <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
       <c r="L29" s="1">
         <v>0</v>
       </c>
       <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
         <v>16</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>187</v>
       </c>
-      <c r="O29" s="1">
+      <c r="Q29" s="1">
         <v>45</v>
       </c>
-      <c r="P29" s="1">
+      <c r="R29" s="1">
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="1">
+      <c r="D30" s="1">
         <v>149</v>
       </c>
-      <c r="C30" s="1">
+      <c r="E30" s="1">
         <v>24</v>
       </c>
-      <c r="D30" s="1">
+      <c r="F30" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="1">
+      <c r="G30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="1">
+      <c r="H30" s="1">
         <v>22</v>
       </c>
-      <c r="G30" s="2">
+      <c r="I30" s="2">
         <v>111</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J30" s="1">
         <v>8</v>
       </c>
-      <c r="I30" s="1">
+      <c r="K30" s="1">
         <v>7</v>
       </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
       <c r="L30" s="1">
         <v>0</v>
       </c>
       <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
         <v>19</v>
       </c>
-      <c r="N30" s="3">
+      <c r="P30" s="3">
         <v>193</v>
       </c>
-      <c r="O30" s="1">
+      <c r="Q30" s="1">
         <v>82</v>
       </c>
-      <c r="P30" s="1">
+      <c r="R30" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="1">
+      <c r="D31" s="1">
         <v>176</v>
-      </c>
-      <c r="C31" s="1">
-        <v>11</v>
-      </c>
-      <c r="D31" s="1">
-        <v>30</v>
       </c>
       <c r="E31" s="1">
         <v>11</v>
       </c>
       <c r="F31" s="1">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1">
+        <v>11</v>
+      </c>
+      <c r="H31" s="1">
         <v>17</v>
       </c>
-      <c r="G31" s="2">
+      <c r="I31" s="2">
         <v>133</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J31" s="1">
         <v>12</v>
       </c>
-      <c r="I31" s="1">
+      <c r="K31" s="1">
         <v>7</v>
       </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
       <c r="L31" s="1">
         <v>0</v>
       </c>
       <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
         <v>19</v>
       </c>
-      <c r="N31" s="3">
+      <c r="P31" s="3">
         <v>236</v>
       </c>
-      <c r="O31" s="1">
+      <c r="Q31" s="1">
         <v>103</v>
       </c>
-      <c r="P31" s="1">
+      <c r="R31" s="1">
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="1">
+      <c r="D32" s="1">
         <v>190</v>
       </c>
-      <c r="C32" s="1">
+      <c r="E32" s="1">
         <v>26</v>
       </c>
-      <c r="D32" s="1">
+      <c r="F32" s="1">
         <v>25</v>
       </c>
-      <c r="E32" s="1">
+      <c r="G32" s="1">
         <v>11</v>
       </c>
-      <c r="F32" s="1">
+      <c r="H32" s="1">
         <v>14</v>
       </c>
-      <c r="G32" s="2">
+      <c r="I32" s="2">
         <v>113</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J32" s="1">
         <v>17</v>
       </c>
-      <c r="I32" s="1">
+      <c r="K32" s="1">
         <v>6</v>
       </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
         <v>1</v>
       </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
         <v>13</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>265</v>
       </c>
-      <c r="O32" s="1">
+      <c r="Q32" s="1">
         <v>152</v>
       </c>
-      <c r="P32" s="1">
+      <c r="R32" s="1">
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="1">
+      <c r="D33" s="1">
         <v>206</v>
       </c>
-      <c r="C33" s="1">
+      <c r="E33" s="1">
         <v>37</v>
       </c>
-      <c r="D33" s="1">
+      <c r="F33" s="1">
         <v>36</v>
       </c>
-      <c r="E33" s="1">
+      <c r="G33" s="1">
         <v>11</v>
       </c>
-      <c r="F33" s="1">
+      <c r="H33" s="1">
         <v>19</v>
       </c>
-      <c r="G33" s="2">
+      <c r="I33" s="2">
         <v>99</v>
       </c>
-      <c r="H33" s="1">
+      <c r="J33" s="1">
         <v>9</v>
       </c>
-      <c r="I33" s="1">
+      <c r="K33" s="1">
         <v>1</v>
       </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
       <c r="L33" s="1">
         <v>0</v>
       </c>
       <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
         <v>18</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>289</v>
       </c>
-      <c r="O33" s="1">
+      <c r="Q33" s="1">
         <v>190</v>
       </c>
-      <c r="P33" s="1">
+      <c r="R33" s="1">
         <v>436</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="1">
+      <c r="D34" s="1">
         <v>282</v>
       </c>
-      <c r="C34" s="1">
+      <c r="E34" s="1">
         <v>14</v>
       </c>
-      <c r="D34" s="1">
+      <c r="F34" s="1">
         <v>21</v>
       </c>
-      <c r="E34" s="1">
+      <c r="G34" s="1">
         <v>11</v>
       </c>
-      <c r="F34" s="1">
+      <c r="H34" s="1">
         <v>14</v>
       </c>
-      <c r="G34" s="2">
+      <c r="I34" s="2">
         <v>138</v>
       </c>
-      <c r="H34" s="1">
+      <c r="J34" s="1">
         <v>22</v>
       </c>
-      <c r="I34" s="1">
+      <c r="K34" s="1">
         <v>4</v>
       </c>
-      <c r="J34" s="1">
+      <c r="L34" s="1">
         <v>2</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
       <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
         <v>19</v>
       </c>
-      <c r="N34" s="3">
+      <c r="P34" s="3">
         <v>345</v>
       </c>
-      <c r="O34" s="1">
+      <c r="Q34" s="1">
         <v>207</v>
       </c>
-      <c r="P34" s="1">
+      <c r="R34" s="1">
         <v>527</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="1">
+      <c r="D35" s="1">
         <v>279</v>
       </c>
-      <c r="C35" s="1">
+      <c r="E35" s="1">
         <v>18</v>
       </c>
-      <c r="D35" s="1">
+      <c r="F35" s="1">
         <v>26</v>
       </c>
-      <c r="E35" s="1">
+      <c r="G35" s="1">
         <v>10</v>
       </c>
-      <c r="F35" s="1">
+      <c r="H35" s="1">
         <v>8</v>
       </c>
-      <c r="G35" s="2">
+      <c r="I35" s="2">
         <v>150</v>
       </c>
-      <c r="H35" s="1">
+      <c r="J35" s="1">
         <v>13</v>
       </c>
-      <c r="I35" s="1">
+      <c r="K35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
       <c r="L35" s="1">
         <v>0</v>
       </c>
       <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
         <v>8</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>337</v>
       </c>
-      <c r="O35" s="1">
+      <c r="Q35" s="1">
         <v>187</v>
       </c>
-      <c r="P35" s="1">
+      <c r="R35" s="1">
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="1">
+      <c r="D36" s="1">
         <v>263</v>
       </c>
-      <c r="C36" s="1">
+      <c r="E36" s="1">
         <v>16</v>
       </c>
-      <c r="D36" s="1">
+      <c r="F36" s="1">
         <v>23</v>
       </c>
-      <c r="E36" s="1">
+      <c r="G36" s="1">
         <v>8</v>
       </c>
-      <c r="F36" s="1">
+      <c r="H36" s="1">
         <v>12</v>
       </c>
-      <c r="G36" s="2">
+      <c r="I36" s="2">
         <v>133</v>
       </c>
-      <c r="H36" s="1">
+      <c r="J36" s="1">
         <v>19</v>
       </c>
-      <c r="I36" s="1">
+      <c r="K36" s="1">
         <v>7</v>
       </c>
-      <c r="J36" s="1">
+      <c r="L36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
       <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
         <v>18</v>
       </c>
-      <c r="N36" s="3">
+      <c r="P36" s="3">
         <v>329</v>
       </c>
-      <c r="O36" s="1">
+      <c r="Q36" s="1">
         <v>196</v>
       </c>
-      <c r="P36" s="1">
+      <c r="R36" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="1">
+      <c r="D37" s="1">
         <v>328</v>
       </c>
-      <c r="C37" s="1">
+      <c r="E37" s="1">
         <v>12</v>
       </c>
-      <c r="D37" s="1">
+      <c r="F37" s="1">
         <v>23</v>
       </c>
-      <c r="E37" s="1">
+      <c r="G37" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="1">
+      <c r="H37" s="1">
         <v>6</v>
       </c>
-      <c r="G37" s="2">
+      <c r="I37" s="2">
         <v>173</v>
       </c>
-      <c r="H37" s="1">
+      <c r="J37" s="1">
         <v>18</v>
       </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
       <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
         <v>1</v>
       </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
         <v>14</v>
       </c>
-      <c r="N37" s="3">
+      <c r="P37" s="3">
         <v>382</v>
       </c>
-      <c r="O37" s="1">
+      <c r="Q37" s="1">
         <v>209</v>
       </c>
-      <c r="P37" s="1">
+      <c r="R37" s="1">
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="1">
+      <c r="D38" s="1">
         <v>234</v>
       </c>
-      <c r="C38" s="1">
+      <c r="E38" s="1">
         <v>28</v>
       </c>
-      <c r="D38" s="1">
+      <c r="F38" s="1">
         <v>41</v>
       </c>
-      <c r="E38" s="1">
+      <c r="G38" s="1">
         <v>12</v>
       </c>
-      <c r="F38" s="1">
+      <c r="H38" s="1">
         <v>15</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>115</v>
       </c>
-      <c r="H38" s="1">
+      <c r="J38" s="1">
         <v>9</v>
       </c>
-      <c r="I38" s="1">
+      <c r="K38" s="1">
         <v>1</v>
       </c>
-      <c r="J38" s="1">
+      <c r="L38" s="1">
         <v>2</v>
       </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
       <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
         <v>20</v>
       </c>
-      <c r="N38" s="3">
+      <c r="P38" s="3">
         <v>315</v>
       </c>
-      <c r="O38" s="1">
+      <c r="Q38" s="1">
         <v>200</v>
       </c>
-      <c r="P38" s="1">
+      <c r="R38" s="1">
         <v>477</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1">
+      <c r="D39" s="1">
         <v>192</v>
       </c>
-      <c r="C39" s="1">
+      <c r="E39" s="1">
         <v>10</v>
       </c>
-      <c r="D39" s="1">
+      <c r="F39" s="1">
         <v>28</v>
       </c>
-      <c r="E39" s="1">
+      <c r="G39" s="1">
         <v>15</v>
       </c>
-      <c r="F39" s="1">
+      <c r="H39" s="1">
         <v>15</v>
       </c>
-      <c r="G39" s="2">
+      <c r="I39" s="2">
         <v>150</v>
       </c>
-      <c r="H39" s="1">
+      <c r="J39" s="1">
         <v>5</v>
       </c>
-      <c r="I39" s="1">
+      <c r="K39" s="1">
         <v>3</v>
       </c>
-      <c r="J39" s="1">
+      <c r="L39" s="1">
         <v>1</v>
       </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
       <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
         <v>20</v>
       </c>
-      <c r="N39" s="3">
+      <c r="P39" s="3">
         <v>239</v>
       </c>
-      <c r="O39" s="1">
+      <c r="Q39" s="1">
         <v>89</v>
       </c>
-      <c r="P39" s="1">
+      <c r="R39" s="1">
         <v>439</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="1">
+      <c r="D40" s="1">
         <v>198</v>
       </c>
-      <c r="C40" s="1">
+      <c r="E40" s="1">
         <v>15</v>
       </c>
-      <c r="D40" s="1">
+      <c r="F40" s="1">
         <v>20</v>
       </c>
-      <c r="E40" s="1">
+      <c r="G40" s="1">
         <v>13</v>
       </c>
-      <c r="F40" s="1">
+      <c r="H40" s="1">
         <v>12</v>
       </c>
-      <c r="G40" s="2">
+      <c r="I40" s="2">
         <v>129</v>
       </c>
-      <c r="H40" s="1">
+      <c r="J40" s="1">
         <v>13</v>
       </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
       <c r="K40" s="1">
         <v>0</v>
       </c>
@@ -2625,649 +2876,727 @@
         <v>0</v>
       </c>
       <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
         <v>18</v>
       </c>
-      <c r="N40" s="3">
+      <c r="P40" s="3">
         <v>246</v>
       </c>
-      <c r="O40" s="1">
+      <c r="Q40" s="1">
         <v>117</v>
       </c>
-      <c r="P40" s="1">
+      <c r="R40" s="1">
         <v>418</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="1">
+      <c r="D41" s="1">
         <v>179</v>
       </c>
-      <c r="C41" s="1">
+      <c r="E41" s="1">
         <v>10</v>
       </c>
-      <c r="D41" s="1">
+      <c r="F41" s="1">
         <v>20</v>
       </c>
-      <c r="E41" s="1">
+      <c r="G41" s="1">
         <v>26</v>
       </c>
-      <c r="F41" s="1">
+      <c r="H41" s="1">
         <v>23</v>
       </c>
-      <c r="G41" s="2">
+      <c r="I41" s="2">
         <v>149</v>
       </c>
-      <c r="H41" s="1">
+      <c r="J41" s="1">
         <v>8</v>
       </c>
-      <c r="I41" s="1">
+      <c r="K41" s="1">
         <v>3</v>
       </c>
-      <c r="J41" s="1">
+      <c r="L41" s="1">
         <v>1</v>
       </c>
-      <c r="K41" s="1">
+      <c r="M41" s="1">
         <v>1</v>
       </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
         <v>16</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>222</v>
       </c>
-      <c r="O41" s="1">
+      <c r="Q41" s="1">
         <v>73</v>
       </c>
-      <c r="P41" s="1">
+      <c r="R41" s="1">
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="1">
+      <c r="D42" s="1">
         <v>174</v>
       </c>
-      <c r="C42" s="1">
+      <c r="E42" s="1">
         <v>18</v>
       </c>
-      <c r="D42" s="1">
+      <c r="F42" s="1">
         <v>21</v>
       </c>
-      <c r="E42" s="1">
+      <c r="G42" s="1">
         <v>17</v>
       </c>
-      <c r="F42" s="1">
+      <c r="H42" s="1">
         <v>19</v>
       </c>
-      <c r="G42" s="2">
+      <c r="I42" s="2">
         <v>124</v>
       </c>
-      <c r="H42" s="1">
+      <c r="J42" s="1">
         <v>8</v>
       </c>
-      <c r="I42" s="1">
+      <c r="K42" s="1">
         <v>5</v>
       </c>
-      <c r="J42" s="1">
+      <c r="L42" s="1">
         <v>1</v>
       </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
       <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
         <v>21</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>227</v>
       </c>
-      <c r="O42" s="1">
+      <c r="Q42" s="1">
         <v>103</v>
       </c>
-      <c r="P42" s="1">
+      <c r="R42" s="1">
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="1">
+      <c r="D43" s="1">
         <v>210</v>
       </c>
-      <c r="C43" s="1">
+      <c r="E43" s="1">
         <v>20</v>
       </c>
-      <c r="D43" s="1">
+      <c r="F43" s="1">
         <v>24</v>
       </c>
-      <c r="E43" s="1">
+      <c r="G43" s="1">
         <v>12</v>
       </c>
-      <c r="F43" s="1">
+      <c r="H43" s="1">
         <v>10</v>
       </c>
-      <c r="G43" s="2">
+      <c r="I43" s="2">
         <v>127</v>
       </c>
-      <c r="H43" s="1">
+      <c r="J43" s="1">
         <v>18</v>
       </c>
-      <c r="I43" s="1">
+      <c r="K43" s="1">
         <v>2</v>
       </c>
-      <c r="J43" s="1">
+      <c r="L43" s="1">
         <v>1</v>
       </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
       <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
         <v>12</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>275</v>
       </c>
-      <c r="O43" s="1">
+      <c r="Q43" s="1">
         <v>148</v>
       </c>
-      <c r="P43" s="1">
+      <c r="R43" s="1">
         <v>436</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="1">
+      <c r="D44" s="1">
         <v>177</v>
       </c>
-      <c r="C44" s="1">
+      <c r="E44" s="1">
         <v>18</v>
-      </c>
-      <c r="D44" s="1">
-        <v>16</v>
-      </c>
-      <c r="E44" s="1">
-        <v>14</v>
       </c>
       <c r="F44" s="1">
         <v>16</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1">
+        <v>16</v>
+      </c>
+      <c r="I44" s="2">
         <v>173</v>
       </c>
-      <c r="H44" s="1">
+      <c r="J44" s="1">
         <v>7</v>
       </c>
-      <c r="I44" s="1">
+      <c r="K44" s="1">
         <v>4</v>
       </c>
-      <c r="J44" s="1">
+      <c r="L44" s="1">
         <v>1</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
       <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
         <v>17</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>223</v>
       </c>
-      <c r="O44" s="1">
+      <c r="Q44" s="1">
         <v>50</v>
       </c>
-      <c r="P44" s="1">
+      <c r="R44" s="1">
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="1">
+      <c r="D45" s="1">
         <v>179</v>
       </c>
-      <c r="C45" s="1">
+      <c r="E45" s="1">
         <v>10</v>
       </c>
-      <c r="D45" s="1">
+      <c r="F45" s="1">
         <v>30</v>
       </c>
-      <c r="E45" s="1">
+      <c r="G45" s="1">
         <v>7</v>
       </c>
-      <c r="F45" s="1">
+      <c r="H45" s="1">
         <v>13</v>
       </c>
-      <c r="G45" s="2">
+      <c r="I45" s="2">
         <v>124</v>
       </c>
-      <c r="H45" s="1">
+      <c r="J45" s="1">
         <v>15</v>
       </c>
-      <c r="I45" s="1">
+      <c r="K45" s="1">
         <v>3</v>
       </c>
-      <c r="J45" s="1">
+      <c r="L45" s="1">
         <v>1</v>
       </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
       <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
         <v>16</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>238</v>
       </c>
-      <c r="O45" s="1">
+      <c r="Q45" s="1">
         <v>114</v>
       </c>
-      <c r="P45" s="1">
+      <c r="R45" s="1">
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="1">
+      <c r="D46" s="1">
         <v>145</v>
-      </c>
-      <c r="C46" s="1">
-        <v>9</v>
-      </c>
-      <c r="D46" s="1">
-        <v>35</v>
       </c>
       <c r="E46" s="1">
         <v>9</v>
       </c>
       <c r="F46" s="1">
+        <v>35</v>
+      </c>
+      <c r="G46" s="1">
+        <v>9</v>
+      </c>
+      <c r="H46" s="1">
         <v>12</v>
       </c>
-      <c r="G46" s="2">
+      <c r="I46" s="2">
         <v>149</v>
       </c>
-      <c r="H46" s="1">
+      <c r="J46" s="1">
         <v>15</v>
       </c>
-      <c r="I46" s="1">
+      <c r="K46" s="1">
         <v>2</v>
       </c>
-      <c r="J46" s="1">
+      <c r="L46" s="1">
         <v>4</v>
       </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
       <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
         <v>24</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>210</v>
       </c>
-      <c r="O46" s="1">
+      <c r="Q46" s="1">
         <v>61</v>
       </c>
-      <c r="P46" s="1">
+      <c r="R46" s="1">
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="1">
+      <c r="D47" s="1">
         <v>215</v>
       </c>
-      <c r="C47" s="1">
+      <c r="E47" s="1">
         <v>14</v>
       </c>
-      <c r="D47" s="1">
+      <c r="F47" s="1">
         <v>21</v>
       </c>
-      <c r="E47" s="1">
+      <c r="G47" s="1">
         <v>10</v>
       </c>
-      <c r="F47" s="1">
+      <c r="H47" s="1">
         <v>13</v>
       </c>
-      <c r="G47" s="2">
+      <c r="I47" s="2">
         <v>125</v>
       </c>
-      <c r="H47" s="1">
+      <c r="J47" s="1">
         <v>12</v>
       </c>
-      <c r="I47" s="1">
+      <c r="K47" s="1">
         <v>2</v>
       </c>
-      <c r="J47" s="1">
+      <c r="L47" s="1">
         <v>1</v>
       </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
       <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
         <v>18</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>265</v>
       </c>
-      <c r="O47" s="1">
+      <c r="Q47" s="1">
         <v>140</v>
       </c>
-      <c r="P47" s="1">
+      <c r="R47" s="1">
         <v>431</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="1">
+      <c r="D48" s="1">
         <v>166</v>
       </c>
-      <c r="C48" s="1">
+      <c r="E48" s="1">
         <v>9</v>
       </c>
-      <c r="D48" s="1">
+      <c r="F48" s="1">
         <v>24</v>
       </c>
-      <c r="E48" s="1">
+      <c r="G48" s="1">
         <v>11</v>
       </c>
-      <c r="F48" s="1">
+      <c r="H48" s="1">
         <v>13</v>
       </c>
-      <c r="G48" s="2">
+      <c r="I48" s="2">
         <v>145</v>
       </c>
-      <c r="H48" s="1">
+      <c r="J48" s="1">
         <v>12</v>
       </c>
-      <c r="I48" s="1">
+      <c r="K48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" s="1">
+      <c r="L48" s="1">
         <v>1</v>
       </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
       <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
         <v>16</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>213</v>
       </c>
-      <c r="O48" s="1">
+      <c r="Q48" s="1">
         <v>68</v>
       </c>
-      <c r="P48" s="1">
+      <c r="R48" s="1">
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="1">
+      <c r="D49" s="1">
         <v>139</v>
       </c>
-      <c r="C49" s="1">
+      <c r="E49" s="1">
         <v>12</v>
       </c>
-      <c r="D49" s="1">
+      <c r="F49" s="1">
         <v>46</v>
       </c>
-      <c r="E49" s="1">
+      <c r="G49" s="1">
         <v>6</v>
       </c>
-      <c r="F49" s="1">
+      <c r="H49" s="1">
         <v>4</v>
       </c>
-      <c r="G49" s="2">
+      <c r="I49" s="2">
         <v>178</v>
       </c>
-      <c r="H49" s="1">
+      <c r="J49" s="1">
         <v>10</v>
       </c>
-      <c r="I49" s="1">
+      <c r="K49" s="1">
         <v>2</v>
       </c>
-      <c r="J49" s="1">
+      <c r="L49" s="1">
         <v>1</v>
       </c>
-      <c r="K49" s="1">
+      <c r="M49" s="1">
         <v>1</v>
       </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>211</v>
       </c>
-      <c r="O49" s="1">
+      <c r="Q49" s="1">
         <v>33</v>
       </c>
-      <c r="P49" s="1">
+      <c r="R49" s="1">
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="1">
+      <c r="D50" s="1">
         <v>142</v>
       </c>
-      <c r="C50" s="1">
+      <c r="E50" s="1">
         <v>12</v>
       </c>
-      <c r="D50" s="1">
+      <c r="F50" s="1">
         <v>32</v>
       </c>
-      <c r="E50" s="1">
+      <c r="G50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="1">
+      <c r="H50" s="1">
         <v>4</v>
       </c>
-      <c r="G50" s="2">
+      <c r="I50" s="2">
         <v>171</v>
       </c>
-      <c r="H50" s="1">
+      <c r="J50" s="1">
         <v>11</v>
       </c>
-      <c r="I50" s="1">
+      <c r="K50" s="1">
         <v>2</v>
       </c>
-      <c r="J50" s="1">
+      <c r="L50" s="1">
         <v>3</v>
       </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
       <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
         <v>10</v>
       </c>
-      <c r="N50" s="3">
+      <c r="P50" s="3">
         <v>202</v>
       </c>
-      <c r="O50" s="1">
+      <c r="Q50" s="1">
         <v>31</v>
       </c>
-      <c r="P50" s="1">
+      <c r="R50" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="1">
+      <c r="D51" s="1">
         <v>177</v>
       </c>
-      <c r="C51" s="1">
+      <c r="E51" s="1">
         <v>10</v>
       </c>
-      <c r="D51" s="1">
+      <c r="F51" s="1">
         <v>43</v>
       </c>
-      <c r="E51" s="1">
+      <c r="G51" s="1">
         <v>7</v>
       </c>
-      <c r="F51" s="1">
+      <c r="H51" s="1">
         <v>3</v>
       </c>
-      <c r="G51" s="2">
+      <c r="I51" s="2">
         <v>135</v>
       </c>
-      <c r="H51" s="1">
+      <c r="J51" s="1">
         <v>4</v>
-      </c>
-      <c r="I51" s="1">
-        <v>2</v>
-      </c>
-      <c r="J51" s="1">
-        <v>3</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="N51" s="3">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
         <v>241</v>
       </c>
-      <c r="O51" s="1">
+      <c r="Q51" s="1">
         <v>106</v>
       </c>
-      <c r="P51" s="1">
+      <c r="R51" s="1">
         <v>386</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="1">
+      <c r="D52" s="1">
         <v>169</v>
       </c>
-      <c r="C52" s="1">
+      <c r="E52" s="1">
         <v>20</v>
       </c>
-      <c r="D52" s="1">
+      <c r="F52" s="1">
         <v>52</v>
       </c>
-      <c r="E52" s="1">
+      <c r="G52" s="1">
         <v>7</v>
       </c>
-      <c r="F52" s="1">
+      <c r="H52" s="1">
         <v>13</v>
       </c>
-      <c r="G52" s="2">
+      <c r="I52" s="2">
         <v>125</v>
       </c>
-      <c r="H52" s="1">
+      <c r="J52" s="1">
         <v>5</v>
       </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
         <v>2</v>
       </c>
-      <c r="K52" s="1">
+      <c r="M52" s="1">
         <v>1</v>
       </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1">
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
         <v>18</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>249</v>
       </c>
-      <c r="O52" s="1">
+      <c r="Q52" s="1">
         <v>124</v>
       </c>
-      <c r="P52" s="1">
+      <c r="R52" s="1">
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="1">
+      <c r="D53" s="1">
         <v>121</v>
       </c>
-      <c r="C53" s="1">
+      <c r="E53" s="1">
         <v>13</v>
       </c>
-      <c r="D53" s="1">
+      <c r="F53" s="1">
         <v>45</v>
       </c>
-      <c r="E53" s="1">
+      <c r="G53" s="1">
         <v>4</v>
       </c>
-      <c r="F53" s="1">
+      <c r="H53" s="1">
         <v>5</v>
       </c>
-      <c r="G53" s="2">
+      <c r="I53" s="2">
         <v>141</v>
       </c>
-      <c r="H53" s="1">
+      <c r="J53" s="1">
         <v>10</v>
       </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
       <c r="K53" s="1">
         <v>0</v>
       </c>
@@ -3275,299 +3604,335 @@
         <v>0</v>
       </c>
       <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
         <v>19</v>
       </c>
-      <c r="N53" s="3">
+      <c r="P53" s="3">
         <v>189</v>
       </c>
-      <c r="O53" s="1">
+      <c r="Q53" s="1">
         <v>48</v>
       </c>
-      <c r="P53" s="1">
+      <c r="R53" s="1">
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="1">
+      <c r="D54" s="1">
         <v>161</v>
       </c>
-      <c r="C54" s="1">
+      <c r="E54" s="1">
         <v>13</v>
       </c>
-      <c r="D54" s="1">
+      <c r="F54" s="1">
         <v>41</v>
       </c>
-      <c r="E54" s="1">
+      <c r="G54" s="1">
         <v>5</v>
       </c>
-      <c r="F54" s="1">
+      <c r="H54" s="1">
         <v>6</v>
       </c>
-      <c r="G54" s="2">
+      <c r="I54" s="2">
         <v>147</v>
       </c>
-      <c r="H54" s="1">
+      <c r="J54" s="1">
         <v>4</v>
       </c>
-      <c r="I54" s="1">
+      <c r="K54" s="1">
         <v>6</v>
       </c>
-      <c r="J54" s="1">
+      <c r="L54" s="1">
         <v>1</v>
       </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0</v>
-      </c>
       <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
         <v>19</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>226</v>
       </c>
-      <c r="O54" s="1">
-        <v>79</v>
-      </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
+        <v>79</v>
+      </c>
+      <c r="R54" s="1">
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="1">
+      <c r="D55" s="1">
         <v>144</v>
       </c>
-      <c r="C55" s="1">
+      <c r="E55" s="1">
         <v>18</v>
       </c>
-      <c r="D55" s="1">
+      <c r="F55" s="1">
         <v>45</v>
       </c>
-      <c r="E55" s="1">
+      <c r="G55" s="1">
         <v>12</v>
       </c>
-      <c r="F55" s="1">
+      <c r="H55" s="1">
         <v>6</v>
       </c>
-      <c r="G55" s="2">
+      <c r="I55" s="2">
         <v>138</v>
       </c>
-      <c r="H55" s="1">
+      <c r="J55" s="1">
         <v>13</v>
       </c>
-      <c r="I55" s="1">
+      <c r="K55" s="1">
         <v>2</v>
       </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
       <c r="L55" s="1">
         <v>0</v>
       </c>
       <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
         <v>18</v>
       </c>
-      <c r="N55" s="3">
+      <c r="P55" s="3">
         <v>222</v>
       </c>
-      <c r="O55" s="1">
+      <c r="Q55" s="1">
         <v>84</v>
       </c>
-      <c r="P55" s="1">
+      <c r="R55" s="1">
         <v>396</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="1">
+      <c r="D56" s="1">
         <v>140</v>
       </c>
-      <c r="C56" s="1">
+      <c r="E56" s="1">
         <v>33</v>
       </c>
-      <c r="D56" s="1">
+      <c r="F56" s="1">
         <v>88</v>
       </c>
-      <c r="E56" s="1">
+      <c r="G56" s="1">
         <v>6</v>
       </c>
-      <c r="F56" s="1">
+      <c r="H56" s="1">
         <v>5</v>
       </c>
-      <c r="G56" s="2">
+      <c r="I56" s="2">
         <v>63</v>
       </c>
-      <c r="H56" s="1">
+      <c r="J56" s="1">
         <v>10</v>
       </c>
-      <c r="I56" s="1">
+      <c r="K56" s="1">
         <v>4</v>
       </c>
-      <c r="J56" s="1">
+      <c r="L56" s="1">
         <v>3</v>
       </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0</v>
-      </c>
       <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
         <v>8</v>
       </c>
-      <c r="N56" s="3">
+      <c r="P56" s="3">
         <v>278</v>
       </c>
-      <c r="O56" s="1">
+      <c r="Q56" s="1">
         <v>215</v>
       </c>
-      <c r="P56" s="1">
+      <c r="R56" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="1">
+      <c r="D57" s="1">
         <v>144</v>
       </c>
-      <c r="C57" s="1">
+      <c r="E57" s="1">
         <v>15</v>
       </c>
-      <c r="D57" s="1">
+      <c r="F57" s="1">
         <v>46</v>
       </c>
-      <c r="E57" s="1">
+      <c r="G57" s="1">
         <v>10</v>
       </c>
-      <c r="F57" s="1">
+      <c r="H57" s="1">
         <v>13</v>
       </c>
-      <c r="G57" s="2">
+      <c r="I57" s="2">
         <v>111</v>
       </c>
-      <c r="H57" s="1">
+      <c r="J57" s="1">
         <v>10</v>
       </c>
-      <c r="I57" s="1">
+      <c r="K57" s="1">
         <v>6</v>
       </c>
-      <c r="J57" s="1">
+      <c r="L57" s="1">
         <v>5</v>
       </c>
-      <c r="K57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0</v>
-      </c>
       <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>226</v>
       </c>
-      <c r="O57" s="1">
+      <c r="Q57" s="1">
         <v>115</v>
       </c>
-      <c r="P57" s="1">
+      <c r="R57" s="1">
         <v>368</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="1">
+      <c r="D58" s="1">
         <v>132</v>
       </c>
-      <c r="C58" s="1">
+      <c r="E58" s="1">
         <v>24</v>
       </c>
-      <c r="D58" s="1">
+      <c r="F58" s="1">
         <v>67</v>
       </c>
-      <c r="E58" s="1">
+      <c r="G58" s="1">
         <v>4</v>
       </c>
-      <c r="F58" s="1">
+      <c r="H58" s="1">
         <v>8</v>
       </c>
-      <c r="G58" s="2">
+      <c r="I58" s="2">
         <v>134</v>
       </c>
-      <c r="H58" s="1">
+      <c r="J58" s="1">
         <v>10</v>
       </c>
-      <c r="I58" s="1">
+      <c r="K58" s="1">
         <v>4</v>
       </c>
-      <c r="J58" s="1">
+      <c r="L58" s="1">
         <v>5</v>
       </c>
-      <c r="K58" s="1">
-        <v>0</v>
-      </c>
-      <c r="L58" s="1">
-        <v>0</v>
-      </c>
       <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
         <v>9</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>242</v>
       </c>
-      <c r="O58" s="1">
+      <c r="Q58" s="1">
         <v>108</v>
       </c>
-      <c r="P58" s="1">
+      <c r="R58" s="1">
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="1">
+      <c r="D59" s="1">
         <v>136</v>
       </c>
-      <c r="C59" s="1">
+      <c r="E59" s="1">
         <v>9</v>
       </c>
-      <c r="D59" s="1">
+      <c r="F59" s="1">
         <v>36</v>
       </c>
-      <c r="E59" s="1">
+      <c r="G59" s="1">
         <v>10</v>
       </c>
-      <c r="F59" s="1">
+      <c r="H59" s="1">
         <v>15</v>
       </c>
-      <c r="G59" s="2">
+      <c r="I59" s="2">
         <v>126</v>
       </c>
-      <c r="H59" s="1">
+      <c r="J59" s="1">
         <v>7</v>
       </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
       <c r="K59" s="1">
         <v>0</v>
       </c>
@@ -3575,180 +3940,138 @@
         <v>0</v>
       </c>
       <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
         <v>23</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>188</v>
       </c>
-      <c r="O59" s="1">
+      <c r="Q59" s="1">
         <v>62</v>
       </c>
-      <c r="P59" s="1">
+      <c r="R59" s="1">
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="1">
+      <c r="D60" s="1">
         <v>111</v>
       </c>
-      <c r="C60" s="1">
+      <c r="E60" s="1">
         <v>24</v>
       </c>
-      <c r="D60" s="1">
+      <c r="F60" s="1">
         <v>40</v>
       </c>
-      <c r="E60" s="1">
+      <c r="G60" s="1">
         <v>9</v>
       </c>
-      <c r="F60" s="1">
+      <c r="H60" s="1">
         <v>12</v>
       </c>
-      <c r="G60" s="2">
+      <c r="I60" s="2">
         <v>102</v>
       </c>
-      <c r="H60" s="1">
+      <c r="J60" s="1">
         <v>7</v>
       </c>
-      <c r="I60" s="1">
+      <c r="K60" s="1">
         <v>1</v>
       </c>
-      <c r="J60" s="1">
+      <c r="L60" s="1">
         <v>4</v>
       </c>
-      <c r="K60" s="1">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1">
-        <v>0</v>
-      </c>
       <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
         <v>12</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>187</v>
       </c>
-      <c r="O60" s="1">
+      <c r="Q60" s="1">
         <v>85</v>
       </c>
-      <c r="P60" s="1">
+      <c r="R60" s="1">
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="1">
+      <c r="D61" s="1">
         <v>142</v>
       </c>
-      <c r="C61" s="1">
+      <c r="E61" s="1">
         <v>17</v>
       </c>
-      <c r="D61" s="1">
+      <c r="F61" s="1">
         <v>44</v>
       </c>
-      <c r="E61" s="1">
+      <c r="G61" s="1">
         <v>10</v>
       </c>
-      <c r="F61" s="1">
+      <c r="H61" s="1">
         <v>6</v>
       </c>
-      <c r="G61" s="2">
+      <c r="I61" s="2">
         <v>88</v>
       </c>
-      <c r="H61" s="1">
+      <c r="J61" s="1">
         <v>11</v>
-      </c>
-      <c r="I61" s="1">
-        <v>2</v>
-      </c>
-      <c r="J61" s="1">
-        <v>1</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
       </c>
       <c r="L61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="1">
+        <v>2</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
         <v>9</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>219</v>
       </c>
-      <c r="O61" s="1">
+      <c r="Q61" s="1">
         <v>131</v>
       </c>
-      <c r="P61" s="1">
+      <c r="R61" s="1">
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="1">
-        <v>10597</v>
-      </c>
-      <c r="C62" s="1">
-        <v>948</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2379</v>
-      </c>
-      <c r="E62" s="1">
-        <v>542</v>
-      </c>
-      <c r="F62" s="1">
-        <v>761</v>
-      </c>
-      <c r="G62" s="2">
-        <v>8116</v>
-      </c>
-      <c r="H62" s="1">
-        <v>572</v>
-      </c>
-      <c r="I62" s="1">
-        <v>158</v>
-      </c>
-      <c r="J62" s="1">
-        <v>96</v>
-      </c>
-      <c r="K62" s="1">
-        <v>16</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-      <c r="M62" s="1">
-        <v>897</v>
-      </c>
-      <c r="N62" s="3">
-        <v>14766</v>
-      </c>
-      <c r="O62" s="1">
-        <v>6650</v>
-      </c>
-      <c r="P62" s="1">
-        <v>25083</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>